--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFE86ED-BE2E-924F-AC00-99F66260508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19933C8-544C-E948-92C4-A37A35CAC27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="105">
   <si>
     <t>Activity</t>
   </si>
@@ -352,7 +352,7 @@
     <t>hydrogen, gaseous, 30 bar</t>
   </si>
   <si>
-    <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
+    <t>carbon dioxide, captured at hydrogen production plant, pre, pipeline 400km, storage 3000m</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1368,12 +1368,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1393,19 +1393,13 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1421,14 +1415,14 @@
       <c r="F41" t="s">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
+      <c r="G41" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1444,20 +1438,14 @@
       <c r="F42" t="s">
         <v>24</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>7.7829999999999996E-2</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="G42" t="s">
         <v>59</v>
       </c>
-      <c r="J42" t="s">
+      <c r="H42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1477,11 +1465,11 @@
       <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s">
+      <c r="G43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1497,14 +1485,14 @@
       <c r="F44" t="s">
         <v>24</v>
       </c>
-      <c r="I44" t="s">
+      <c r="G44" t="s">
         <v>81</v>
       </c>
-      <c r="J44" t="s">
+      <c r="H44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -1521,14 +1509,14 @@
       <c r="F45" t="s">
         <v>24</v>
       </c>
-      <c r="I45" t="s">
+      <c r="G45" t="s">
         <v>72</v>
       </c>
-      <c r="J45" t="s">
+      <c r="H45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -1545,14 +1533,14 @@
       <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="I46" t="s">
+      <c r="G46" t="s">
         <v>72</v>
       </c>
-      <c r="J46" t="s">
+      <c r="H46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1568,20 +1556,14 @@
       <c r="F47" t="s">
         <v>24</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>5.8309999999999997E-12</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47" t="s">
         <v>25</v>
       </c>
-      <c r="J47" t="s">
+      <c r="H47" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1597,20 +1579,14 @@
       <c r="F48" t="s">
         <v>24</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1.3960000000000001E-3</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="G48" t="s">
         <v>58</v>
       </c>
-      <c r="J48" t="s">
+      <c r="H48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1626,20 +1602,14 @@
       <c r="F49" t="s">
         <v>24</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>3.3119999999999998E-11</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G49" t="s">
         <v>31</v>
       </c>
-      <c r="J49" t="s">
+      <c r="H49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -1655,20 +1625,14 @@
       <c r="F50" t="s">
         <v>24</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>5.6059999999999999E-2</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G50" t="s">
         <v>59</v>
       </c>
-      <c r="J50" t="s">
+      <c r="H50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -1684,20 +1648,14 @@
       <c r="F51" t="s">
         <v>24</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>9.4979999999999995E-3</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G51" t="s">
         <v>58</v>
       </c>
-      <c r="J51" t="s">
+      <c r="H51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1713,20 +1671,14 @@
       <c r="F52" t="s">
         <v>24</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>2.3179999999999999E-2</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" t="s">
         <v>59</v>
       </c>
-      <c r="J52" t="s">
+      <c r="H52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1742,20 +1694,14 @@
       <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>2.3179999999999999E-2</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G53" t="s">
         <v>68</v>
       </c>
-      <c r="J53" t="s">
+      <c r="H53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1772,14 +1718,14 @@
       <c r="F54" t="s">
         <v>24</v>
       </c>
-      <c r="I54" t="s">
+      <c r="G54" t="s">
         <v>59</v>
       </c>
-      <c r="J54" t="s">
+      <c r="H54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1796,14 +1742,14 @@
       <c r="F55" t="s">
         <v>24</v>
       </c>
-      <c r="I55" t="s">
+      <c r="G55" t="s">
         <v>59</v>
       </c>
-      <c r="J55" t="s">
+      <c r="H55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -1819,20 +1765,14 @@
       <c r="F56" t="s">
         <v>24</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>3.5360000000000001E-3</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="G56" t="s">
         <v>58</v>
       </c>
-      <c r="J56" t="s">
+      <c r="H56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -1848,20 +1788,14 @@
       <c r="F57" t="s">
         <v>24</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>4.2110000000000003E-3</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G57" t="s">
         <v>58</v>
       </c>
-      <c r="J57" t="s">
+      <c r="H57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1877,20 +1811,14 @@
       <c r="F58" t="s">
         <v>24</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1.9040000000000001E-3</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G58" t="s">
         <v>58</v>
       </c>
-      <c r="J58" t="s">
+      <c r="H58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1907,14 +1835,14 @@
       <c r="F59" t="s">
         <v>24</v>
       </c>
-      <c r="I59" t="s">
+      <c r="G59" t="s">
         <v>68</v>
       </c>
-      <c r="J59" t="s">
+      <c r="H59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -1930,17 +1858,11 @@
       <c r="F60" t="s">
         <v>17</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>5.7720000000000003E-5</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1956,17 +1878,11 @@
       <c r="F61" t="s">
         <v>17</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0.1502</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="G61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -1982,17 +1898,11 @@
       <c r="F62" t="s">
         <v>17</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>8.6459999999999996E-5</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -2009,10 +1919,10 @@
       <c r="F63" t="s">
         <v>24</v>
       </c>
-      <c r="I63" t="s">
+      <c r="G63" t="s">
         <v>77</v>
       </c>
-      <c r="J63" t="s">
+      <c r="H63" t="s">
         <v>104</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-coal-gasification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19933C8-544C-E948-92C4-A37A35CAC27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50002488-33AF-EF4A-BEE9-33009510AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1240" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="105">
   <si>
     <t>Activity</t>
   </si>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1453,9 +1453,6 @@
         <f>32/1000</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C43" t="s">
-        <v>70</v>
-      </c>
       <c r="D43" t="s">
         <v>66</v>
       </c>
